--- a/210915_Load/Assets/Resources/Data/SkillData.xlsx
+++ b/210915_Load/Assets/Resources/Data/SkillData.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>5</v>
